--- a/AAII_Financials/Yearly/SAIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAIC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,156 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43497</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43133</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42398</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42034</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41670</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41305</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40939</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6379000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4659000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4454000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4442000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4315000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3885000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4121000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4781000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4733000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5673000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4195000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4037000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4003000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3904000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3550000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3788000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4373000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4307000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>706000</v>
+      </c>
+      <c r="E10" s="3">
         <v>464000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>417000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>439000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>411000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>335000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>333000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>408000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>426000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,16 +827,17 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4000</v>
       </c>
       <c r="F12" s="3">
         <v>4000</v>
@@ -832,20 +846,23 @@
         <v>4000</v>
       </c>
       <c r="H12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I12" s="3">
         <v>5000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,39 +890,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E14" s="3">
         <v>80000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>26000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>58000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>28000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,9 +956,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +971,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6009000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4439000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4198000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4179000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4088000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3645000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3938000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4434000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E18" s="3">
         <v>220000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>256000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>263000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>227000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>240000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>183000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>281000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>299000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,23 +1052,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1046,131 +1080,146 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E21" s="3">
         <v>272000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>304000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>317000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>289000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>261000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>196000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>294000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>313000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E22" s="3">
         <v>53000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>44000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>44000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E23" s="3">
         <v>170000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>214000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>212000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>183000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>223000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>176000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>281000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>298000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E24" s="3">
         <v>33000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>52000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>69000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>66000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>82000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>63000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>99000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>116000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1247,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E26" s="3">
         <v>137000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>162000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>143000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>117000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>141000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>113000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>182000</v>
       </c>
       <c r="K26" s="3">
         <v>182000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>182000</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E27" s="3">
         <v>137000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>162000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>143000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>117000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>141000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>113000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>182000</v>
       </c>
       <c r="K27" s="3">
         <v>182000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>182000</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1346,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>17000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1318,9 +1379,12 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,24 +1445,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1406,41 +1476,47 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E33" s="3">
         <v>137000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>179000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>143000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>117000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>141000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>113000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>182000</v>
       </c>
       <c r="K33" s="3">
         <v>182000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>182000</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1544,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E35" s="3">
         <v>137000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>179000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>143000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>117000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>141000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>113000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>182000</v>
       </c>
       <c r="K35" s="3">
         <v>182000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>182000</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43497</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43133</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42398</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42034</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41670</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41305</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40939</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,38 +1648,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E41" s="3">
         <v>237000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>210000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>195000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>301000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>254000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1000</v>
       </c>
       <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,39 +1711,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1050000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>674000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>539000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>635000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1088000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>621000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>691000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>814000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,79 +1775,88 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>73000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E45" s="3">
         <v>146000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>132000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>152000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>122000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>194000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>119000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>117000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1430000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1433000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>950000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>901000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>952000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>942000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>994000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>809000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>923000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E47" s="3">
         <v>17000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -1768,72 +1873,81 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E48" s="3">
         <v>103000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>60000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>71000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>224000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>29000</v>
       </c>
       <c r="K48" s="3">
         <v>29000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>29000</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2850000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2923000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1042000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1063000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1084000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>381000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>383000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>385000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>388000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2008,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E52" s="3">
         <v>87000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2074,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4711000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4563000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2073000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2042000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2122000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1389000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1447000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1245000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1371000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2140,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E57" s="3">
         <v>455000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>397000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>329000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>351000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>680000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>721000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>593000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>199000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E58" s="3">
         <v>24000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>25000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>57000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>32000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>531000</v>
+      </c>
+      <c r="E59" s="3">
         <v>418000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>257000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>345000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>280000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>410000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>217000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>482000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E60" s="3">
         <v>897000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>695000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>623000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>688000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>552000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>564000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>638000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>702000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1851000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2065000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>983000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1022000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1013000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>454000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>489000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E62" s="3">
         <v>102000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>68000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>48000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>38000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2434,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3294000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3078000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1746000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1693000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1742000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1044000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1070000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>649000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>715000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2548,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2614,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E72" s="3">
         <v>367000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>323000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>260000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>174000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>116000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30000</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2746,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1417000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1485000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>327000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>349000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>380000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>345000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>377000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>596000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>656000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2812,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43497</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43133</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42398</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42034</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41670</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41305</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40939</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E81" s="3">
         <v>137000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>179000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>143000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>117000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>141000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>113000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>182000</v>
       </c>
       <c r="K81" s="3">
         <v>182000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>182000</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2901,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E83" s="3">
         <v>49000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>46000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>53000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>62000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>13000</v>
       </c>
       <c r="J83" s="3">
         <v>13000</v>
       </c>
       <c r="K83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="L83" s="3">
         <v>15000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3096,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>458000</v>
+      </c>
+      <c r="E89" s="3">
         <v>184000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>217000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>273000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>226000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>277000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>183000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>280000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>303000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3147,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3243,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1028000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-784000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3294,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-53000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-54000</v>
       </c>
       <c r="F96" s="3">
         <v>-54000</v>
       </c>
       <c r="G96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-55000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-52000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-322000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,39 +3423,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-455000</v>
+      </c>
+      <c r="E100" s="3">
         <v>938000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-261000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-247000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>466000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-208000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>86000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-274000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-302000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3240,37 +3489,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E102" s="3">
         <v>94000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-66000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-92000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>47000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>253000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SAIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAIC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,168 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43497</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43133</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42398</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42034</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41670</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41305</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40939</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7056000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6379000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4659000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4454000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4442000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4315000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3885000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4121000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4781000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4733000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6264000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5673000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4195000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4037000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4003000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3904000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3550000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3788000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4373000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4307000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>792000</v>
+      </c>
+      <c r="E10" s="3">
         <v>706000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>464000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>417000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>439000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>411000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>335000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>333000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>408000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>426000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,19 +840,20 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E12" s="3">
         <v>7000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4000</v>
       </c>
       <c r="G12" s="3">
         <v>4000</v>
@@ -849,20 +862,23 @@
         <v>4000</v>
       </c>
       <c r="I12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J12" s="3">
         <v>5000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,42 +909,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E14" s="3">
         <v>48000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>80000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>26000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>58000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>28000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -959,9 +981,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6666000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6009000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4439000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4198000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4179000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4088000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3645000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3938000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4500000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4434000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E18" s="3">
         <v>370000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>220000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>256000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>263000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>227000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>240000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>183000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>281000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>299000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,26 +1085,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1083,143 +1116,158 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>514000</v>
+        <v>531000</v>
       </c>
       <c r="E21" s="3">
-        <v>272000</v>
+        <v>425000</v>
       </c>
       <c r="F21" s="3">
-        <v>304000</v>
+        <v>269000</v>
       </c>
       <c r="G21" s="3">
-        <v>317000</v>
+        <v>311000</v>
       </c>
       <c r="H21" s="3">
-        <v>289000</v>
+        <v>326000</v>
       </c>
       <c r="I21" s="3">
-        <v>261000</v>
-      </c>
-      <c r="J21" s="3">
+        <v>248000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3">
         <v>196000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>294000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>313000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E22" s="3">
         <v>90000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>53000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>44000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>44000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7000</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E23" s="3">
         <v>286000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>170000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>214000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>212000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>183000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>223000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>176000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>281000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>298000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E24" s="3">
         <v>57000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>33000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>52000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>69000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>66000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>82000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>63000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>99000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>116000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E26" s="3">
         <v>229000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>137000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>162000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>143000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>117000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>141000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>113000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>182000</v>
       </c>
       <c r="L26" s="3">
         <v>182000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>182000</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E27" s="3">
         <v>226000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>137000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>162000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>143000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>117000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>141000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>113000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>182000</v>
       </c>
       <c r="L27" s="3">
         <v>182000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>182000</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,23 +1406,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>17000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1382,9 +1442,12 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,27 +1514,30 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1479,44 +1548,50 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E33" s="3">
         <v>226000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>137000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>179000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>143000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>117000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>141000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>113000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>182000</v>
       </c>
       <c r="L33" s="3">
         <v>182000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>182000</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E35" s="3">
         <v>226000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>137000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>179000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>143000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>117000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>141000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>113000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>182000</v>
       </c>
       <c r="L35" s="3">
         <v>182000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>182000</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43497</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43133</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42398</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42034</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41670</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41305</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40939</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,41 +1734,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E41" s="3">
         <v>188000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>237000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>144000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>210000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>195000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>301000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>254000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1000</v>
       </c>
       <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1714,152 +1803,167 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>962000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1099000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1050000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>674000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>539000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>635000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1088000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>621000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>691000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>814000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>78000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>73000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E45" s="3">
         <v>143000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>146000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>132000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>152000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>122000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>194000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>119000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>117000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1430000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1433000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>950000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>901000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>952000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>942000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>994000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>809000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>923000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E47" s="3">
         <v>44000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
@@ -1876,78 +1980,87 @@
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E48" s="3">
         <v>281000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>103000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>61000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>71000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>224000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>60000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>29000</v>
       </c>
       <c r="L48" s="3">
         <v>29000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>29000</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3925000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2850000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2923000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1042000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1063000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1084000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>381000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>383000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>385000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>388000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E52" s="3">
         <v>106000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>87000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5723000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4711000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4563000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2073000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2042000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2122000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1389000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1447000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1245000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1371000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,206 +2270,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E57" s="3">
         <v>527000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>455000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>397000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>329000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>351000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>680000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>721000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>593000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>199000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E58" s="3">
         <v>70000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>25000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>57000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>32000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>690000</v>
+      </c>
+      <c r="E59" s="3">
         <v>531000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>418000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>257000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>345000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>280000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>410000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>217000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>482000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1275000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1128000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>897000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>695000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>623000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>688000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>552000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>564000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>638000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>702000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2447000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1851000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2065000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>983000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1022000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1013000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>454000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>489000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E62" s="3">
         <v>305000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>102000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>68000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>48000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>41000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>38000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4181000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3294000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3078000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1746000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1693000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1742000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1044000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1070000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>649000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>715000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>627000</v>
+      </c>
+      <c r="E72" s="3">
         <v>506000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>367000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>323000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>260000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>174000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>116000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>30000</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1542000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1417000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1485000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>327000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>349000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>380000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>345000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>377000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>596000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>656000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43497</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43133</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42398</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42034</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41670</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41305</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40939</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E81" s="3">
         <v>226000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>137000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>179000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>143000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>117000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>141000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>113000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>182000</v>
       </c>
       <c r="L81" s="3">
         <v>182000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>182000</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3099,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E83" s="3">
         <v>138000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>46000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>53000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>62000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>13000</v>
       </c>
       <c r="K83" s="3">
         <v>13000</v>
       </c>
       <c r="L83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="M83" s="3">
         <v>15000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>755000</v>
+      </c>
+      <c r="E89" s="3">
         <v>458000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>184000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>217000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>273000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>226000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>277000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>183000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>280000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>303000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1231000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1028000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-784000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,8 +3527,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3304,32 +3537,35 @@
         <v>-87000</v>
       </c>
       <c r="E96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-53000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-54000</v>
       </c>
       <c r="G96" s="3">
         <v>-54000</v>
       </c>
       <c r="H96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-55000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-52000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-322000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,42 +3668,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-455000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>938000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-261000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-247000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>466000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-208000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>86000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-274000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-302000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3492,40 +3740,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-44000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>94000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-66000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-92000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>47000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>253000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SAIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAIC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>531000</v>
+        <v>572000</v>
       </c>
       <c r="E21" s="3">
-        <v>425000</v>
+        <v>514000</v>
       </c>
       <c r="F21" s="3">
-        <v>269000</v>
+        <v>272000</v>
       </c>
       <c r="G21" s="3">
-        <v>311000</v>
+        <v>304000</v>
       </c>
       <c r="H21" s="3">
-        <v>326000</v>
+        <v>317000</v>
       </c>
       <c r="I21" s="3">
-        <v>248000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
+        <v>289000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>261000</v>
       </c>
       <c r="K21" s="3">
         <v>196000</v>

--- a/AAII_Financials/Yearly/SAIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAIC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,180 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E7" s="2">
         <v>44225</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43497</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43133</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42398</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42034</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41670</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41305</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40939</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7394000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7056000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6379000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4659000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4454000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4442000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4315000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3885000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4121000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4781000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4733000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6535000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6264000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5673000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4195000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4037000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4003000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3904000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3550000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3788000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4373000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4307000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>859000</v>
+      </c>
+      <c r="E10" s="3">
         <v>792000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>706000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>464000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>417000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>439000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>411000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>335000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>333000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>408000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>426000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,22 +853,23 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
         <v>6000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4000</v>
       </c>
       <c r="H12" s="3">
         <v>4000</v>
@@ -865,20 +878,23 @@
         <v>4000</v>
       </c>
       <c r="J12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K12" s="3">
         <v>5000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,45 +928,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E14" s="3">
         <v>58000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>48000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>80000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>26000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>58000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>28000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -984,9 +1006,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -998,80 +1023,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6932000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6666000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6009000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4439000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4198000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4179000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4088000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3645000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3938000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4500000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4434000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E18" s="3">
         <v>390000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>370000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>220000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>256000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>263000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>227000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>240000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>183000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>281000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>299000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,29 +1118,30 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1119,155 +1152,170 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E21" s="3">
         <v>572000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>514000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>272000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>304000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>317000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>289000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>261000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>196000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>294000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>313000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E22" s="3">
         <v>122000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>90000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>53000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>44000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>52000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>44000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7000</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E23" s="3">
         <v>271000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>286000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>170000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>214000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>212000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>183000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>223000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>176000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>281000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>298000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E24" s="3">
         <v>60000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>57000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>33000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>52000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>69000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>66000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>82000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>99000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>116000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1301,81 +1349,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E26" s="3">
         <v>211000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>229000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>137000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>162000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>143000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>117000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>141000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>113000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>182000</v>
       </c>
       <c r="M26" s="3">
         <v>182000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>182000</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E27" s="3">
         <v>209000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>226000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>137000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>162000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>143000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>117000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>141000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>113000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>182000</v>
       </c>
       <c r="M27" s="3">
         <v>182000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>182000</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1409,26 +1466,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>17000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1445,9 +1505,12 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1481,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1517,30 +1583,33 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1551,47 +1620,53 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E33" s="3">
         <v>209000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>226000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>137000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>179000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>143000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>117000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>141000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>113000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>182000</v>
       </c>
       <c r="M33" s="3">
         <v>182000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>182000</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1625,86 +1700,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E35" s="3">
         <v>209000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>226000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>137000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>179000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>143000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>117000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>141000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>113000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>182000</v>
       </c>
       <c r="M35" s="3">
         <v>182000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>182000</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E38" s="2">
         <v>44225</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43497</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43133</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42398</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42034</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41670</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41305</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40939</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1719,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,44 +1820,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E41" s="3">
         <v>171000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>188000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>237000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>210000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>195000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>301000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>254000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1000</v>
       </c>
       <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1806,53 +1895,59 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="E43" s="3">
         <v>962000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1099000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1050000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>674000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>539000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>635000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1088000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>621000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>691000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>814000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E44" s="3">
         <v>78000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>10</v>
@@ -1869,18 +1964,21 @@
       <c r="J44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>73000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1888,85 +1986,91 @@
         <v>78000</v>
       </c>
       <c r="E45" s="3">
+        <v>78000</v>
+      </c>
+      <c r="F45" s="3">
         <v>143000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>146000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>132000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>152000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>122000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>194000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>119000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>117000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1263000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1289000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1430000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1433000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>950000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>901000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>952000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>942000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>994000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>809000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>923000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E47" s="3">
         <v>18000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>44000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -1983,84 +2087,93 @@
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E48" s="3">
         <v>344000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>281000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>103000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>61000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>71000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>224000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>29000</v>
       </c>
       <c r="M48" s="3">
         <v>29000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>29000</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4045000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3925000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2850000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2923000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1042000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1063000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1084000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>381000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>383000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>385000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>388000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2130,45 +2246,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E52" s="3">
         <v>147000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>106000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>87000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2202,45 +2324,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5746000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5723000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4711000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4563000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2073000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2042000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2122000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1389000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1447000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1245000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1371000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2255,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2271,224 +2400,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E57" s="3">
         <v>517000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>527000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>455000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>397000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>329000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>351000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>680000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>721000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>593000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>199000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E58" s="3">
         <v>68000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>70000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>25000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>57000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>32000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E59" s="3">
         <v>690000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>531000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>418000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>257000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>345000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>280000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>410000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>217000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>482000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1352000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1275000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1128000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>897000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>695000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>623000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>688000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>552000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>564000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>638000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>702000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2370000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2447000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1851000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2065000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>983000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1022000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1013000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>454000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>489000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E62" s="3">
         <v>449000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>305000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>102000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>68000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>48000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>38000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2522,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2558,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,45 +2748,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4127000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4181000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3294000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3078000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1746000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1693000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1742000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1044000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1070000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>649000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>715000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2647,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2682,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2718,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2754,9 +2921,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2790,45 +2960,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>818000</v>
+      </c>
+      <c r="E72" s="3">
         <v>627000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>506000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>367000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>323000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>260000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>174000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>116000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30000</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2898,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2934,45 +3116,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1619000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1542000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1417000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1485000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>327000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>349000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>380000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>345000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>377000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>596000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>656000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3006,86 +3194,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E80" s="2">
         <v>44225</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43497</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43133</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42398</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42034</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41670</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41305</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40939</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E81" s="3">
         <v>209000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>226000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>137000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>179000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>143000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>117000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>141000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>113000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>182000</v>
       </c>
       <c r="M81" s="3">
         <v>182000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>182000</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3100,44 +3297,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E83" s="3">
         <v>179000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>138000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>46000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>53000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>62000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>13000</v>
       </c>
       <c r="L83" s="3">
         <v>13000</v>
       </c>
       <c r="M83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="N83" s="3">
         <v>15000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3171,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3207,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3243,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3279,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3315,45 +3528,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E89" s="3">
         <v>755000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>458000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>184000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>217000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>273000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>226000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>277000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>183000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>280000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>303000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3368,44 +3587,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-46000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3439,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3475,45 +3701,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-292000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1231000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-47000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1028000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-784000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3528,44 +3760,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-87000</v>
+        <v>-86000</v>
       </c>
       <c r="E96" s="3">
         <v>-87000</v>
       </c>
       <c r="F96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-53000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-54000</v>
       </c>
       <c r="H96" s="3">
         <v>-54000</v>
       </c>
       <c r="I96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-55000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-52000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-322000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3599,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3635,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3671,45 +3913,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="E100" s="3">
         <v>464000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-455000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>938000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-261000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-247000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>466000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-208000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>86000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-274000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-302000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3743,43 +3991,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-44000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>94000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-66000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-92000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>47000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>253000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SAIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAIC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E7" s="2">
         <v>44589</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44225</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43497</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43133</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42398</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42034</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41670</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41305</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40939</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7704000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7394000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7056000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6379000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4659000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4454000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4442000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4315000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3885000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4121000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4781000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4733000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6816000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6535000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6264000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5673000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4195000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4037000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4003000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3904000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3550000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3788000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4373000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4307000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>888000</v>
+      </c>
+      <c r="E10" s="3">
         <v>859000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>792000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>706000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>464000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>417000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>439000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>411000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>335000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>333000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>408000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>426000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,25 +867,26 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>4000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4000</v>
       </c>
       <c r="I12" s="3">
         <v>4000</v>
@@ -881,20 +895,23 @@
         <v>4000</v>
       </c>
       <c r="K12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L12" s="3">
         <v>5000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,48 +948,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E14" s="3">
         <v>57000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>58000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>48000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>80000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>26000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>58000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1009,9 +1032,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,86 +1050,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7203000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6932000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6666000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6009000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4439000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4198000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4179000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4088000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3645000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3938000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4500000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4434000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E18" s="3">
         <v>462000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>390000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>370000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>220000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>256000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>263000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>227000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>240000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>183000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>281000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>299000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,32 +1152,33 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1155,167 +1189,182 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>652000</v>
+      </c>
+      <c r="E21" s="3">
         <v>628000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>572000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>514000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>272000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>304000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>317000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>289000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>261000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>196000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>294000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>313000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E22" s="3">
         <v>105000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>122000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>90000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>53000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>44000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>52000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>44000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7000</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E23" s="3">
         <v>358000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>271000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>286000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>170000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>214000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>212000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>183000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>223000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>176000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>281000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>298000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E24" s="3">
         <v>79000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>60000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>57000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>33000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>52000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>69000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>66000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>82000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>99000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>116000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1352,87 +1401,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E26" s="3">
         <v>279000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>211000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>229000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>137000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>162000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>143000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>117000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>141000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>113000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>182000</v>
       </c>
       <c r="N26" s="3">
         <v>182000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>182000</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E27" s="3">
         <v>277000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>209000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>226000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>137000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>162000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>143000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>117000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>141000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>113000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>182000</v>
       </c>
       <c r="N27" s="3">
         <v>182000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>182000</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1469,9 +1527,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,17 +1542,17 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>17000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1508,9 +1569,12 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1547,9 +1611,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1586,33 +1653,36 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1623,50 +1693,56 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E33" s="3">
         <v>277000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>209000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>226000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>137000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>179000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>143000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>117000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>141000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>113000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>182000</v>
       </c>
       <c r="N33" s="3">
         <v>182000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>182000</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,92 +1779,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E35" s="3">
         <v>277000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>209000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>226000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>137000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>179000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>143000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>117000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>141000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>113000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>182000</v>
       </c>
       <c r="N35" s="3">
         <v>182000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>182000</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E38" s="2">
         <v>44589</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44225</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43497</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43133</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42398</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42034</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41670</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41305</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40939</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,8 +1889,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1821,47 +1907,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E41" s="3">
         <v>106000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>171000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>188000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>237000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>210000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>195000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>301000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>254000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1000</v>
       </c>
       <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1898,59 +1988,65 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1015000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>962000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1099000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1050000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>674000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>539000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>635000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1088000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>621000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>691000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>814000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E44" s="3">
         <v>64000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>78000</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>10</v>
@@ -1967,113 +2063,122 @@
       <c r="K44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>73000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>78000</v>
+        <v>81000</v>
       </c>
       <c r="E45" s="3">
         <v>78000</v>
       </c>
       <c r="F45" s="3">
+        <v>78000</v>
+      </c>
+      <c r="G45" s="3">
         <v>143000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>146000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>132000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>152000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>122000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>194000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>119000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>117000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1197000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1263000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1289000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1430000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1433000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>950000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>901000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>952000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>942000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>994000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>809000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>923000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E47" s="3">
         <v>45000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>44000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
@@ -2090,90 +2195,99 @@
       <c r="M47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E48" s="3">
         <v>309000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>344000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>281000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>103000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>71000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>224000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>29000</v>
       </c>
       <c r="N48" s="3">
         <v>29000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>29000</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3920000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4045000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3925000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2850000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2923000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1042000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1063000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1084000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>381000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>383000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>385000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>388000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2210,9 +2324,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2249,48 +2366,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E52" s="3">
         <v>84000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>147000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>106000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>87000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2327,48 +2450,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5543000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5746000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5723000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4711000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4563000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2073000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2042000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2122000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1389000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1447000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1245000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1371000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,8 +2513,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2401,242 +2531,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E57" s="3">
         <v>612000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>517000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>527000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>455000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>397000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>329000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>351000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>680000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>721000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>593000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>199000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E58" s="3">
         <v>148000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>68000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>70000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>25000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>57000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>32000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E59" s="3">
         <v>592000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>690000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>531000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>418000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>257000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>345000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>280000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>410000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>217000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>482000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1352000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1275000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1128000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>897000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>695000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>623000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>688000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>552000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>564000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>638000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>702000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2343000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2370000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2447000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1851000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2065000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>983000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1022000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1013000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>454000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>489000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E62" s="3">
         <v>395000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>449000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>305000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>102000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>68000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>48000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>38000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,9 +2822,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2712,9 +2864,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,48 +2906,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3849000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4127000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4181000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3294000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3078000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1746000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1693000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1742000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1044000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1070000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>649000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>715000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2808,8 +2969,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2846,9 +3008,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2885,9 +3050,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2924,9 +3092,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2963,48 +3134,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1035000</v>
+      </c>
+      <c r="E72" s="3">
         <v>818000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>627000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>506000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>367000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>323000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>260000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>174000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>116000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30000</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,9 +3218,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3080,9 +3260,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3119,48 +3302,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1694000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1619000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1542000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1417000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1485000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>327000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>349000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>380000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>345000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>377000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>596000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>656000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3197,92 +3386,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E80" s="2">
         <v>44589</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44225</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43497</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43133</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42398</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42034</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41670</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41305</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40939</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E81" s="3">
         <v>277000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>209000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>226000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>137000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>179000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>143000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>117000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>141000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>113000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>182000</v>
       </c>
       <c r="N81" s="3">
         <v>182000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>182000</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,47 +3496,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E83" s="3">
         <v>165000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>179000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>138000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>46000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>53000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>62000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>13000</v>
       </c>
       <c r="M83" s="3">
         <v>13000</v>
       </c>
       <c r="N83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="O83" s="3">
         <v>15000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3375,9 +3577,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3414,9 +3619,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,9 +3661,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3492,9 +3703,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3531,48 +3745,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E89" s="3">
         <v>518000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>755000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>458000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>184000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>217000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>273000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>226000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>277000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>183000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>280000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>303000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3588,47 +3808,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3665,9 +3889,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3704,48 +3931,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-292000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1231000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-47000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1028000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-784000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3761,47 +3994,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-86000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-87000</v>
       </c>
       <c r="F96" s="3">
         <v>-87000</v>
       </c>
       <c r="G96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-53000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-54000</v>
       </c>
       <c r="I96" s="3">
         <v>-54000</v>
       </c>
       <c r="J96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-55000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-52000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-322000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3838,9 +4075,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3877,9 +4117,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3916,48 +4159,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-493000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-301000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>464000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-455000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>938000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-261000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-247000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>466000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-208000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>86000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-274000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-302000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3994,46 +4243,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-75000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-44000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>94000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-66000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-92000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>47000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>253000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
